--- a/Cypher/Character_Sheets.xlsx
+++ b/Cypher/Character_Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susannah\omoikane_bot\Cypher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D786D17C-65BA-4D40-BEDF-89B694B4B27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13106E7D-276F-4086-9073-06A1AAC987B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1995" windowWidth="14580" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>standard Bureau gear</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -268,17 +271,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,15 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +686,11 @@
       <c r="Z1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AA1" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -750,7 +770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="360" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -830,7 +850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="390" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
